--- a/AE Smith/31003/AE Smith__CRL - Link Alliance__resources.xlsx
+++ b/AE Smith/31003/AE Smith__CRL - Link Alliance__resources.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="472">
   <si>
     <t>Rich Type</t>
   </si>
@@ -1247,6 +1247,39 @@
   </si>
   <si>
     <t>e85cb3cb-1062-55c4-a885-8f16feda2075</t>
+  </si>
+  <si>
+    <t>CRL-ITR-022 - General Area Check</t>
+  </si>
+  <si>
+    <t>ec5421c3-8546-4130-bbbe-de4492b9134b</t>
+  </si>
+  <si>
+    <t>General Area Check</t>
+  </si>
+  <si>
+    <t>Area Inspected</t>
+  </si>
+  <si>
+    <t>76782235-36ac-5ebc-8730-51543d5cac0e</t>
+  </si>
+  <si>
+    <t>d4ad7a30-2fda-5356-be5c-99ba0e25d506</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>All materials and equipment of "new" origin.</t>
+  </si>
+  <si>
+    <t>Installation has no sharp edges</t>
+  </si>
+  <si>
+    <t>Installation has all required labelling completed.</t>
+  </si>
+  <si>
+    <t>Any damaged or corroded materials repaired or replaced</t>
   </si>
   <si>
     <t>Internal Duct Work Insulation</t>
@@ -1786,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L528"/>
+  <dimension ref="A1:L538"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -8808,7 +8841,7 @@
     <row r="463" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" s="2" t="s">
@@ -8837,17 +8870,18 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>21</v>
-      </c>
-      <c r="C465" t="s">
-        <v>13</v>
-      </c>
-      <c r="D465" t="s">
-        <v>22</v>
-      </c>
-      <c r="E465" t="s">
-        <v>270</v>
+      <c r="A465" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B465" s="3"/>
+      <c r="C465" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -8861,35 +8895,41 @@
         <v>22</v>
       </c>
       <c r="E466" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B467" t="s">
+        <v>416</v>
       </c>
       <c r="C467" t="s">
         <v>13</v>
       </c>
       <c r="D467" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E467" t="s">
-        <v>415</v>
+        <v>46</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B468" t="s">
+        <v>417</v>
       </c>
       <c r="C468" t="s">
         <v>13</v>
       </c>
       <c r="D468" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E468" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -8903,7 +8943,7 @@
         <v>22</v>
       </c>
       <c r="E469" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -8917,7 +8957,7 @@
         <v>22</v>
       </c>
       <c r="E470" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -8931,7 +8971,7 @@
         <v>22</v>
       </c>
       <c r="E471" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -8945,7 +8985,7 @@
         <v>22</v>
       </c>
       <c r="E472" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -8961,7 +9001,7 @@
         <v>14</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>13</v>
@@ -8973,10 +9013,10 @@
         <v>16</v>
       </c>
       <c r="K474" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L474" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -8990,7 +9030,7 @@
         <v>22</v>
       </c>
       <c r="E475" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -9004,7 +9044,7 @@
         <v>22</v>
       </c>
       <c r="E476" t="s">
-        <v>196</v>
+        <v>425</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -9018,7 +9058,7 @@
         <v>22</v>
       </c>
       <c r="E477" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -9032,7 +9072,7 @@
         <v>22</v>
       </c>
       <c r="E478" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -9046,7 +9086,7 @@
         <v>22</v>
       </c>
       <c r="E479" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -9060,7 +9100,7 @@
         <v>22</v>
       </c>
       <c r="E480" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -9074,53 +9114,52 @@
         <v>22</v>
       </c>
       <c r="E481" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D483" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>21</v>
+      </c>
+      <c r="C482" t="s">
+        <v>13</v>
+      </c>
+      <c r="D482" t="s">
+        <v>22</v>
+      </c>
+      <c r="E482" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B484" s="2"/>
+      <c r="C484" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D484" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E483" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F483" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G483" s="2"/>
-      <c r="H483" s="2"/>
-      <c r="I483" s="2"/>
-      <c r="J483" s="2" t="s">
+      <c r="E484" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G484" s="2"/>
+      <c r="H484" s="2"/>
+      <c r="I484" s="2"/>
+      <c r="J484" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K483" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="L483" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B484" s="3"/>
-      <c r="C484" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E484" s="3" t="s">
-        <v>429</v>
+      <c r="K484" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L484" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -9148,41 +9187,35 @@
         <v>22</v>
       </c>
       <c r="E486" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>25</v>
-      </c>
-      <c r="B487" t="s">
-        <v>430</v>
+        <v>21</v>
       </c>
       <c r="C487" t="s">
         <v>13</v>
       </c>
       <c r="D487" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E487" t="s">
-        <v>28</v>
+        <v>434</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>25</v>
-      </c>
-      <c r="B488" t="s">
-        <v>431</v>
+        <v>21</v>
       </c>
       <c r="C488" t="s">
         <v>13</v>
       </c>
       <c r="D488" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E488" t="s">
-        <v>30</v>
+        <v>435</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -9196,7 +9229,7 @@
         <v>22</v>
       </c>
       <c r="E489" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -9210,7 +9243,7 @@
         <v>22</v>
       </c>
       <c r="E490" t="s">
-        <v>147</v>
+        <v>437</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -9224,55 +9257,53 @@
         <v>22</v>
       </c>
       <c r="E491" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>25</v>
-      </c>
-      <c r="B492" t="s">
-        <v>434</v>
-      </c>
-      <c r="C492" t="s">
-        <v>13</v>
-      </c>
-      <c r="D492" t="s">
-        <v>27</v>
-      </c>
-      <c r="E492" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>21</v>
-      </c>
-      <c r="C493" t="s">
-        <v>13</v>
-      </c>
-      <c r="D493" t="s">
-        <v>22</v>
-      </c>
-      <c r="E493" t="s">
-        <v>435</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B493" s="2"/>
+      <c r="C493" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G493" s="2"/>
+      <c r="H493" s="2"/>
+      <c r="I493" s="2"/>
+      <c r="J493" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K493" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="L493" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>112</v>
-      </c>
-      <c r="B494" t="s">
-        <v>436</v>
-      </c>
-      <c r="C494" t="s">
-        <v>13</v>
-      </c>
-      <c r="D494" t="s">
-        <v>114</v>
-      </c>
-      <c r="E494" t="s">
-        <v>437</v>
+      <c r="A494" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B494" s="3"/>
+      <c r="C494" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -9286,7 +9317,7 @@
         <v>22</v>
       </c>
       <c r="E495" t="s">
-        <v>402</v>
+        <v>23</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -9300,21 +9331,24 @@
         <v>22</v>
       </c>
       <c r="E496" t="s">
-        <v>438</v>
+        <v>144</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B497" t="s">
+        <v>441</v>
       </c>
       <c r="C497" t="s">
         <v>13</v>
       </c>
       <c r="D497" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E497" t="s">
-        <v>331</v>
+        <v>28</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -9322,7 +9356,7 @@
         <v>25</v>
       </c>
       <c r="B498" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C498" t="s">
         <v>13</v>
@@ -9331,24 +9365,21 @@
         <v>27</v>
       </c>
       <c r="E498" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>25</v>
-      </c>
-      <c r="B499" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="C499" t="s">
         <v>13</v>
       </c>
       <c r="D499" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E499" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -9362,24 +9393,21 @@
         <v>22</v>
       </c>
       <c r="E500" t="s">
-        <v>443</v>
+        <v>147</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>25</v>
-      </c>
-      <c r="B501" t="s">
+        <v>21</v>
+      </c>
+      <c r="C501" t="s">
+        <v>13</v>
+      </c>
+      <c r="D501" t="s">
+        <v>22</v>
+      </c>
+      <c r="E501" t="s">
         <v>444</v>
-      </c>
-      <c r="C501" t="s">
-        <v>13</v>
-      </c>
-      <c r="D501" t="s">
-        <v>27</v>
-      </c>
-      <c r="E501" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -9387,7 +9415,7 @@
         <v>25</v>
       </c>
       <c r="B502" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C502" t="s">
         <v>13</v>
@@ -9396,41 +9424,38 @@
         <v>27</v>
       </c>
       <c r="E502" t="s">
-        <v>447</v>
+        <v>168</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>25</v>
-      </c>
-      <c r="B503" t="s">
-        <v>448</v>
+        <v>21</v>
       </c>
       <c r="C503" t="s">
         <v>13</v>
       </c>
       <c r="D503" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E503" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B504" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C504" t="s">
         <v>13</v>
       </c>
       <c r="D504" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E504" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -9444,7 +9469,7 @@
         <v>22</v>
       </c>
       <c r="E505" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -9458,7 +9483,7 @@
         <v>22</v>
       </c>
       <c r="E506" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -9472,21 +9497,24 @@
         <v>22</v>
       </c>
       <c r="E507" t="s">
-        <v>453</v>
+        <v>331</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B508" t="s">
+        <v>450</v>
       </c>
       <c r="C508" t="s">
         <v>13</v>
       </c>
       <c r="D508" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E508" t="s">
-        <v>152</v>
+        <v>451</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -9494,88 +9522,98 @@
         <v>25</v>
       </c>
       <c r="B509" t="s">
+        <v>452</v>
+      </c>
+      <c r="C509" t="s">
+        <v>13</v>
+      </c>
+      <c r="D509" t="s">
+        <v>27</v>
+      </c>
+      <c r="E509" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>21</v>
+      </c>
+      <c r="C510" t="s">
+        <v>13</v>
+      </c>
+      <c r="D510" t="s">
+        <v>22</v>
+      </c>
+      <c r="E510" t="s">
         <v>454</v>
-      </c>
-      <c r="C509" t="s">
-        <v>13</v>
-      </c>
-      <c r="D509" t="s">
-        <v>27</v>
-      </c>
-      <c r="E509" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B510" s="3"/>
-      <c r="C510" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D510" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E510" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B511" t="s">
+        <v>455</v>
       </c>
       <c r="C511" t="s">
         <v>13</v>
       </c>
       <c r="D511" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E511" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B512" s="3"/>
-      <c r="C512" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D512" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E512" s="3" t="s">
-        <v>56</v>
+      <c r="A512" t="s">
+        <v>25</v>
+      </c>
+      <c r="B512" t="s">
+        <v>457</v>
+      </c>
+      <c r="C512" t="s">
+        <v>13</v>
+      </c>
+      <c r="D512" t="s">
+        <v>27</v>
+      </c>
+      <c r="E512" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B513" t="s">
+        <v>459</v>
       </c>
       <c r="C513" t="s">
         <v>13</v>
       </c>
       <c r="D513" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E513" t="s">
-        <v>57</v>
+        <v>460</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B514" t="s">
+        <v>461</v>
       </c>
       <c r="C514" t="s">
         <v>13</v>
       </c>
       <c r="D514" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E514" t="s">
-        <v>58</v>
+        <v>458</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -9589,7 +9627,7 @@
         <v>22</v>
       </c>
       <c r="E515" t="s">
-        <v>59</v>
+        <v>462</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -9603,24 +9641,21 @@
         <v>22</v>
       </c>
       <c r="E516" t="s">
-        <v>43</v>
+        <v>463</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>25</v>
-      </c>
-      <c r="B517" t="s">
-        <v>455</v>
+        <v>21</v>
       </c>
       <c r="C517" t="s">
         <v>13</v>
       </c>
       <c r="D517" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E517" t="s">
-        <v>45</v>
+        <v>464</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -9634,7 +9669,7 @@
         <v>22</v>
       </c>
       <c r="E518" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -9642,7 +9677,7 @@
         <v>25</v>
       </c>
       <c r="B519" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C519" t="s">
         <v>13</v>
@@ -9651,69 +9686,65 @@
         <v>27</v>
       </c>
       <c r="E519" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>21</v>
-      </c>
-      <c r="C520" t="s">
-        <v>13</v>
-      </c>
-      <c r="D520" t="s">
-        <v>22</v>
-      </c>
-      <c r="E520" t="s">
-        <v>48</v>
+      <c r="A520" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B520" s="3"/>
+      <c r="C520" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>25</v>
-      </c>
-      <c r="B521" t="s">
-        <v>457</v>
+        <v>21</v>
       </c>
       <c r="C521" t="s">
         <v>13</v>
       </c>
       <c r="D521" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E521" t="s">
-        <v>45</v>
+        <v>405</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
-        <v>21</v>
-      </c>
-      <c r="C522" t="s">
-        <v>13</v>
-      </c>
-      <c r="D522" t="s">
-        <v>22</v>
-      </c>
-      <c r="E522" t="s">
-        <v>50</v>
+      <c r="A522" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B522" s="3"/>
+      <c r="C522" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>25</v>
-      </c>
-      <c r="B523" t="s">
-        <v>458</v>
+        <v>21</v>
       </c>
       <c r="C523" t="s">
         <v>13</v>
       </c>
       <c r="D523" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E523" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -9727,24 +9758,21 @@
         <v>22</v>
       </c>
       <c r="E524" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>25</v>
-      </c>
-      <c r="B525" t="s">
-        <v>459</v>
+        <v>21</v>
       </c>
       <c r="C525" t="s">
         <v>13</v>
       </c>
       <c r="D525" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E525" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -9758,7 +9786,7 @@
         <v>22</v>
       </c>
       <c r="E526" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -9766,7 +9794,7 @@
         <v>25</v>
       </c>
       <c r="B527" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C527" t="s">
         <v>13</v>
@@ -9778,7 +9806,162 @@
         <v>45</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>21</v>
+      </c>
+      <c r="C528" t="s">
+        <v>13</v>
+      </c>
+      <c r="D528" t="s">
+        <v>22</v>
+      </c>
+      <c r="E528" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>25</v>
+      </c>
+      <c r="B529" t="s">
+        <v>467</v>
+      </c>
+      <c r="C529" t="s">
+        <v>13</v>
+      </c>
+      <c r="D529" t="s">
+        <v>27</v>
+      </c>
+      <c r="E529" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>21</v>
+      </c>
+      <c r="C530" t="s">
+        <v>13</v>
+      </c>
+      <c r="D530" t="s">
+        <v>22</v>
+      </c>
+      <c r="E530" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>25</v>
+      </c>
+      <c r="B531" t="s">
+        <v>468</v>
+      </c>
+      <c r="C531" t="s">
+        <v>13</v>
+      </c>
+      <c r="D531" t="s">
+        <v>27</v>
+      </c>
+      <c r="E531" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>21</v>
+      </c>
+      <c r="C532" t="s">
+        <v>13</v>
+      </c>
+      <c r="D532" t="s">
+        <v>22</v>
+      </c>
+      <c r="E532" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>25</v>
+      </c>
+      <c r="B533" t="s">
+        <v>469</v>
+      </c>
+      <c r="C533" t="s">
+        <v>13</v>
+      </c>
+      <c r="D533" t="s">
+        <v>27</v>
+      </c>
+      <c r="E533" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>21</v>
+      </c>
+      <c r="C534" t="s">
+        <v>13</v>
+      </c>
+      <c r="D534" t="s">
+        <v>22</v>
+      </c>
+      <c r="E534" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>25</v>
+      </c>
+      <c r="B535" t="s">
+        <v>470</v>
+      </c>
+      <c r="C535" t="s">
+        <v>13</v>
+      </c>
+      <c r="D535" t="s">
+        <v>27</v>
+      </c>
+      <c r="E535" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>21</v>
+      </c>
+      <c r="C536" t="s">
+        <v>13</v>
+      </c>
+      <c r="D536" t="s">
+        <v>22</v>
+      </c>
+      <c r="E536" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>25</v>
+      </c>
+      <c r="B537" t="s">
+        <v>471</v>
+      </c>
+      <c r="C537" t="s">
+        <v>13</v>
+      </c>
+      <c r="D537" t="s">
+        <v>27</v>
+      </c>
+      <c r="E537" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
